--- a/tbh-output.xlsx
+++ b/tbh-output.xlsx
@@ -7,42 +7,82 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Amb Chan 119 (C)" sheetId="1" r:id="rId1"/>
-    <sheet name="Chan 115 (C)" sheetId="2" r:id="rId2"/>
-    <sheet name="Chan 116 (C)" sheetId="3" r:id="rId3"/>
-    <sheet name="Chan 117 (C)" sheetId="4" r:id="rId4"/>
-    <sheet name="Chan 118 (C)" sheetId="5" r:id="rId5"/>
-    <sheet name="Chan 114 (C)" sheetId="6" r:id="rId6"/>
+    <sheet name="Amb Amb Temp TC1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC2" sheetId="2" r:id="rId2"/>
+    <sheet name="TC3" sheetId="3" r:id="rId3"/>
+    <sheet name="TC4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="29">
-  <si>
-    <t>Sweep #</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Chan 119 (C)</t>
-  </si>
-  <si>
-    <t>Chan 115 (C)</t>
-  </si>
-  <si>
-    <t>Chan 116 (C)</t>
-  </si>
-  <si>
-    <t>Chan 117 (C)</t>
-  </si>
-  <si>
-    <t>Chan 118 (C)</t>
-  </si>
-  <si>
-    <t>Chan 114 (C)</t>
+    <t>Amb Temp TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>VSetpoint</t>
+  </si>
+  <si>
+    <t>VSense 1</t>
+  </si>
+  <si>
+    <t>VSense 2</t>
+  </si>
+  <si>
+    <t>Board on/off</t>
+  </si>
+  <si>
+    <t>TP1: System 82</t>
+  </si>
+  <si>
+    <t>TP2: System 83</t>
+  </si>
+  <si>
+    <t>TP3: System 84</t>
+  </si>
+  <si>
+    <t>TP4: System 85</t>
+  </si>
+  <si>
+    <t>TP5: System 86</t>
+  </si>
+  <si>
+    <t>TP6: System 87</t>
+  </si>
+  <si>
+    <t>TP7: System 88</t>
+  </si>
+  <si>
+    <t>TP8: System 89</t>
+  </si>
+  <si>
+    <t>TP9: System 90</t>
+  </si>
+  <si>
+    <t>TP10: System 91</t>
+  </si>
+  <si>
+    <t>TP11: System 92</t>
+  </si>
+  <si>
+    <t>TP12: System 93</t>
   </si>
   <si>
     <t>cold_soak_duration_minute</t>
@@ -243,7 +283,7 @@
                 <a:srgbClr val="67818A"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>In this test file, there are 3 cycles.</a:t>
+            <a:t>In this test file, there are 6 cycles.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -550,7 +590,7 @@
                 <a:srgbClr val="67818A"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>The Second Table: Summary table for this channel.</a:t>
+            <a:t>The Second Table: Calculate result for cycle of this channel.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -561,13 +601,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -577,7 +617,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5143500"/>
+          <a:off x="0" y="5715000"/>
           <a:ext cx="4876800" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -773,7 +813,7 @@
                 <a:srgbClr val="67818A"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>The Second Table: Summary table for this channel.</a:t>
+            <a:t>The Second Table: Calculate result for cycle of this channel.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -784,13 +824,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -800,7 +840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5143500"/>
+          <a:off x="0" y="5715000"/>
           <a:ext cx="4876800" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -996,7 +1036,7 @@
                 <a:srgbClr val="67818A"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>The Second Table: Summary table for this channel.</a:t>
+            <a:t>The Second Table: Calculate result for cycle of this channel.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1007,13 +1047,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1023,453 +1063,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5143500"/>
-          <a:ext cx="4876800" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="67818A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Analysis Finished!</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4876800" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="67818A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Every cycle of this channel can reach the threshold!</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="67818A"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="67818A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>The First Table: List out the summary table.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2857500"/>
-          <a:ext cx="4876800" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="67818A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>The Second Table: Summary table for this channel.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5143500"/>
-          <a:ext cx="4876800" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="67818A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Analysis Finished!</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4876800" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="67818A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Every cycle of this channel can reach the threshold!</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="67818A"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="67818A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>The First Table: List out the summary table.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2857500"/>
-          <a:ext cx="4876800" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="67818A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>The Second Table: Summary table for this channel.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5143500"/>
+          <a:off x="0" y="5715000"/>
           <a:ext cx="4876800" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1804,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:Z33"/>
+  <dimension ref="A6:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1407,7 @@
     <col min="1" max="26" width="27.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:23">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1838,157 +1432,199 @@
       <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
-        <v>22.28</v>
+        <v>131.17</v>
       </c>
       <c r="C16" s="1">
-        <v>-41.91</v>
+        <v>-42.65</v>
       </c>
       <c r="D16" s="1">
-        <v>-38</v>
+        <v>-37.07</v>
       </c>
       <c r="E16" s="1">
-        <v>-46.27</v>
+        <v>-43.71</v>
       </c>
       <c r="F16" s="1">
-        <v>10.72</v>
+        <v>125.91</v>
       </c>
       <c r="G16" s="1">
-        <v>94.34999999999999</v>
+        <v>85.33</v>
       </c>
       <c r="H16" s="1">
-        <v>94.93000000000001</v>
+        <v>85.56</v>
       </c>
       <c r="I16" s="1">
-        <v>92.13</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>7.89</v>
+        <v>111.41</v>
       </c>
       <c r="K16" s="1">
-        <v>-132.8</v>
+        <v>-119.13</v>
       </c>
       <c r="L16" s="1">
-        <v>-16.88</v>
+        <v>-1.07</v>
       </c>
       <c r="M16" s="1">
-        <v>9.33</v>
+        <v>111.51</v>
       </c>
       <c r="N16" s="1">
-        <v>133.03</v>
+        <v>119.11</v>
       </c>
       <c r="O16" s="1">
-        <v>14.25</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
-        <v>21.5</v>
+        <v>131.13</v>
       </c>
       <c r="C17" s="1">
-        <v>-41.96</v>
+        <v>-42.67</v>
       </c>
       <c r="D17" s="1">
-        <v>-39.3</v>
+        <v>-37.1</v>
       </c>
       <c r="E17" s="1">
-        <v>-47.2</v>
+        <v>-43.77</v>
       </c>
       <c r="F17" s="1">
-        <v>10.67</v>
+        <v>125.45</v>
       </c>
       <c r="G17" s="1">
-        <v>94.3</v>
+        <v>85.31</v>
       </c>
       <c r="H17" s="1">
-        <v>94.90000000000001</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>92.09999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>7.5</v>
+        <v>110.63</v>
       </c>
       <c r="K17" s="1">
-        <v>-134.6</v>
+        <v>-119.23</v>
       </c>
       <c r="L17" s="1">
-        <v>-17.6</v>
+        <v>-1.08</v>
       </c>
       <c r="M17" s="1">
-        <v>9.33</v>
+        <v>111.45</v>
       </c>
       <c r="N17" s="1">
-        <v>132.8</v>
+        <v>119.06</v>
       </c>
       <c r="O17" s="1">
-        <v>14.23</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1997,219 +1633,219 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
-        <v>22.83</v>
+        <v>131.23</v>
       </c>
       <c r="C19" s="1">
-        <v>-41.83</v>
+        <v>-42.64</v>
       </c>
       <c r="D19" s="1">
-        <v>-37.2</v>
+        <v>-37.05</v>
       </c>
       <c r="E19" s="1">
-        <v>-45.7</v>
+        <v>-43.62</v>
       </c>
       <c r="F19" s="1">
-        <v>10.83</v>
+        <v>126.72</v>
       </c>
       <c r="G19" s="1">
-        <v>94.39</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>95</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>92.2</v>
+        <v>82.06</v>
       </c>
       <c r="J19" s="1">
-        <v>8.5</v>
+        <v>111.88</v>
       </c>
       <c r="K19" s="1">
-        <v>-131.8</v>
+        <v>-119.07</v>
       </c>
       <c r="L19" s="1">
-        <v>-15.84</v>
+        <v>-1.06</v>
       </c>
       <c r="M19" s="1">
-        <v>9.33</v>
+        <v>111.58</v>
       </c>
       <c r="N19" s="1">
-        <v>133.4</v>
+        <v>119.15</v>
       </c>
       <c r="O19" s="1">
-        <v>14.29</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
       <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="C21" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D21" s="1">
-        <v>1.14</v>
+        <v>0.02</v>
       </c>
       <c r="E21" s="1">
-        <v>0.8100000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F21" s="1">
-        <v>0.1</v>
+        <v>0.61</v>
       </c>
       <c r="G21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K21" s="1">
         <v>0.05</v>
       </c>
-      <c r="H21" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.56</v>
-      </c>
       <c r="L21" s="1">
-        <v>0.92</v>
+        <v>0.01</v>
       </c>
       <c r="M21" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O21" s="1">
         <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.03</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2217,46 +1853,46 @@
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>21.5</v>
+        <v>131.2</v>
       </c>
       <c r="C31" s="1">
-        <v>-41.96</v>
+        <v>-42.66</v>
       </c>
       <c r="D31" s="1">
-        <v>-39.3</v>
+        <v>-37.08</v>
       </c>
       <c r="E31" s="1">
-        <v>-47.2</v>
+        <v>-43.77</v>
       </c>
       <c r="F31" s="1">
-        <v>10.67</v>
+        <v>125.45</v>
       </c>
       <c r="G31" s="1">
-        <v>94.37</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="H31" s="1">
-        <v>94.90000000000001</v>
+        <v>85.56</v>
       </c>
       <c r="I31" s="1">
-        <v>92.2</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="J31" s="1">
-        <v>8.5</v>
+        <v>111.85</v>
       </c>
       <c r="K31" s="1">
-        <v>-134.6</v>
+        <v>-119.1</v>
       </c>
       <c r="L31" s="1">
-        <v>-15.84</v>
+        <v>-1.06</v>
       </c>
       <c r="M31" s="1">
-        <v>9.33</v>
+        <v>111.5</v>
       </c>
       <c r="N31" s="1">
-        <v>132.9</v>
+        <v>119.1</v>
       </c>
       <c r="O31" s="1">
-        <v>14.24</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2264,46 +1900,46 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>22.5</v>
+        <v>131.13</v>
       </c>
       <c r="C32" s="1">
-        <v>-41.93</v>
+        <v>-42.64</v>
       </c>
       <c r="D32" s="1">
-        <v>-37.2</v>
+        <v>-37.06</v>
       </c>
       <c r="E32" s="1">
-        <v>-45.9</v>
+        <v>-43.68</v>
       </c>
       <c r="F32" s="1">
-        <v>10.67</v>
+        <v>125.45</v>
       </c>
       <c r="G32" s="1">
-        <v>94.3</v>
+        <v>85.33</v>
       </c>
       <c r="H32" s="1">
-        <v>94.90000000000001</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="I32" s="1">
-        <v>92.09999999999999</v>
+        <v>82.06</v>
       </c>
       <c r="J32" s="1">
-        <v>7.5</v>
+        <v>111.88</v>
       </c>
       <c r="K32" s="1">
-        <v>-132</v>
+        <v>-119.14</v>
       </c>
       <c r="L32" s="1">
-        <v>-17.6</v>
+        <v>-1.06</v>
       </c>
       <c r="M32" s="1">
-        <v>9.33</v>
+        <v>111.48</v>
       </c>
       <c r="N32" s="1">
-        <v>132.8</v>
+        <v>119.1</v>
       </c>
       <c r="O32" s="1">
-        <v>14.23</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2311,46 +1947,175 @@
         <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>22.83</v>
+        <v>131.23</v>
       </c>
       <c r="C33" s="1">
-        <v>-41.83</v>
+        <v>-42.65</v>
       </c>
       <c r="D33" s="1">
-        <v>-37.5</v>
+        <v>-37.05</v>
       </c>
       <c r="E33" s="1">
-        <v>-45.7</v>
+        <v>-43.62</v>
       </c>
       <c r="F33" s="1">
-        <v>10.83</v>
+        <v>125.58</v>
       </c>
       <c r="G33" s="1">
-        <v>94.39</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="H33" s="1">
-        <v>95</v>
+        <v>85.56</v>
       </c>
       <c r="I33" s="1">
-        <v>92.09999999999999</v>
+        <v>82.06</v>
       </c>
       <c r="J33" s="1">
-        <v>7.67</v>
+        <v>111.78</v>
       </c>
       <c r="K33" s="1">
-        <v>-131.8</v>
+        <v>-119.1</v>
       </c>
       <c r="L33" s="1">
-        <v>-17.19</v>
+        <v>-1.07</v>
       </c>
       <c r="M33" s="1">
-        <v>9.33</v>
+        <v>111.52</v>
       </c>
       <c r="N33" s="1">
-        <v>133.4</v>
+        <v>119.08</v>
       </c>
       <c r="O33" s="1">
-        <v>14.29</v>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>131.17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-42.65</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-37.05</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-43.74</v>
+      </c>
+      <c r="F34" s="1">
+        <v>125.58</v>
+      </c>
+      <c r="G34" s="1">
+        <v>85.34</v>
+      </c>
+      <c r="H34" s="1">
+        <v>85.55</v>
+      </c>
+      <c r="I34" s="1">
+        <v>82.02</v>
+      </c>
+      <c r="J34" s="1">
+        <v>111.68</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-119.07</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-1.07</v>
+      </c>
+      <c r="M34" s="1">
+        <v>111.5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>119.15</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>131.13</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-42.67</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-37.1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-43.73</v>
+      </c>
+      <c r="F35" s="1">
+        <v>126.72</v>
+      </c>
+      <c r="G35" s="1">
+        <v>85.31</v>
+      </c>
+      <c r="H35" s="1">
+        <v>85.56</v>
+      </c>
+      <c r="I35" s="1">
+        <v>82.02</v>
+      </c>
+      <c r="J35" s="1">
+        <v>110.65</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-119.23</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-1.08</v>
+      </c>
+      <c r="M35" s="1">
+        <v>111.58</v>
+      </c>
+      <c r="N35" s="1">
+        <v>119.15</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>126.68</v>
+      </c>
+      <c r="G36" s="1">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="H36" s="1">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>110.63</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-119.13</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-1.08</v>
+      </c>
+      <c r="M36" s="1">
+        <v>111.45</v>
+      </c>
+      <c r="N36" s="1">
+        <v>119.06</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:Z24"/>
+  <dimension ref="A6:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2372,375 +2137,375 @@
   <sheetData>
     <row r="6" spans="1:15">
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
-        <v>21.25</v>
+        <v>13.47</v>
       </c>
       <c r="C7" s="1">
-        <v>-40.8</v>
+        <v>-38.6</v>
       </c>
       <c r="D7" s="1">
-        <v>-37.35</v>
+        <v>-37.09</v>
       </c>
       <c r="E7" s="1">
-        <v>-43.55</v>
+        <v>-40.07</v>
       </c>
       <c r="F7" s="1">
-        <v>7.33</v>
+        <v>134.64</v>
       </c>
       <c r="G7" s="1">
-        <v>93.59</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>94.43000000000001</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>92.09999999999999</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>8.67</v>
+        <v>107.65</v>
       </c>
       <c r="K7" s="1">
-        <v>-131.1</v>
+        <v>-119.14</v>
       </c>
       <c r="L7" s="1">
-        <v>-15.13</v>
+        <v>-1.11</v>
       </c>
       <c r="M7" s="1">
-        <v>12.83</v>
+        <v>209.26</v>
       </c>
       <c r="N7" s="1">
-        <v>132.2</v>
+        <v>119.19</v>
       </c>
       <c r="O7" s="1">
-        <v>10.3</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1">
-        <v>21.17</v>
+        <v>13.28</v>
       </c>
       <c r="C8" s="1">
-        <v>-40.82</v>
+        <v>-38.63</v>
       </c>
       <c r="D8" s="1">
-        <v>-37.4</v>
+        <v>-37.15</v>
       </c>
       <c r="E8" s="1">
-        <v>-43.8</v>
+        <v>-40.09</v>
       </c>
       <c r="F8" s="1">
-        <v>7.17</v>
+        <v>134.25</v>
       </c>
       <c r="G8" s="1">
-        <v>93.55</v>
+        <v>90.06</v>
       </c>
       <c r="H8" s="1">
-        <v>94.40000000000001</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>92.09999999999999</v>
+        <v>82.03</v>
       </c>
       <c r="J8" s="1">
-        <v>8.5</v>
+        <v>107.45</v>
       </c>
       <c r="K8" s="1">
-        <v>-131.7</v>
+        <v>-119.23</v>
       </c>
       <c r="L8" s="1">
-        <v>-15.33</v>
+        <v>-1.11</v>
       </c>
       <c r="M8" s="1">
-        <v>12.67</v>
+        <v>133.7</v>
       </c>
       <c r="N8" s="1">
-        <v>132.1</v>
+        <v>119.05</v>
       </c>
       <c r="O8" s="1">
-        <v>10.18</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
-        <v>21.33</v>
+        <v>13.6</v>
       </c>
       <c r="C10" s="1">
-        <v>-40.77</v>
+        <v>-38.53</v>
       </c>
       <c r="D10" s="1">
-        <v>-37.3</v>
+        <v>-37.01</v>
       </c>
       <c r="E10" s="1">
-        <v>-43.3</v>
+        <v>-40.04</v>
       </c>
       <c r="F10" s="1">
-        <v>7.5</v>
+        <v>135.38</v>
       </c>
       <c r="G10" s="1">
-        <v>93.62</v>
+        <v>90.66</v>
       </c>
       <c r="H10" s="1">
-        <v>94.5</v>
+        <v>94.52</v>
       </c>
       <c r="I10" s="1">
-        <v>92.09999999999999</v>
+        <v>82.08</v>
       </c>
       <c r="J10" s="1">
-        <v>8.83</v>
+        <v>107.78</v>
       </c>
       <c r="K10" s="1">
-        <v>-130.3</v>
+        <v>-119.02</v>
       </c>
       <c r="L10" s="1">
-        <v>-14.91</v>
+        <v>-1.11</v>
       </c>
       <c r="M10" s="1">
-        <v>13</v>
+        <v>224.7</v>
       </c>
       <c r="N10" s="1">
-        <v>132.3</v>
+        <v>119.36</v>
       </c>
       <c r="O10" s="1">
-        <v>10.43</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>2</v>
       </c>
       <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
         <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C12" s="1">
         <v>0.04</v>
       </c>
       <c r="D12" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="1">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="F12" s="1">
-        <v>0.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="H12" s="1">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="I12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.21</v>
-      </c>
       <c r="M12" s="1">
-        <v>0.17</v>
+        <v>37.02</v>
       </c>
       <c r="N12" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="O12" s="1">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2748,46 +2513,46 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>21.33</v>
+        <v>13.6</v>
       </c>
       <c r="C22" s="1">
-        <v>-40.77</v>
+        <v>-38.63</v>
       </c>
       <c r="D22" s="1">
-        <v>-37.3</v>
+        <v>-37.09</v>
       </c>
       <c r="E22" s="1">
-        <v>-43.8</v>
+        <v>-40.09</v>
       </c>
       <c r="F22" s="1">
-        <v>7.17</v>
+        <v>135.35</v>
       </c>
       <c r="G22" s="1">
-        <v>93.55</v>
+        <v>90.66</v>
       </c>
       <c r="H22" s="1">
-        <v>94.40000000000001</v>
+        <v>94.52</v>
       </c>
       <c r="I22" s="1">
-        <v>92.09999999999999</v>
+        <v>82.08</v>
       </c>
       <c r="J22" s="1">
-        <v>8.5</v>
+        <v>107.45</v>
       </c>
       <c r="K22" s="1">
-        <v>-130.3</v>
+        <v>-119.17</v>
       </c>
       <c r="L22" s="1">
-        <v>-15.33</v>
+        <v>-1.11</v>
       </c>
       <c r="M22" s="1">
-        <v>13</v>
+        <v>133.7</v>
       </c>
       <c r="N22" s="1">
-        <v>132.3</v>
+        <v>119.08</v>
       </c>
       <c r="O22" s="1">
-        <v>10.18</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2795,81 +2560,222 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>21.17</v>
+        <v>13.58</v>
       </c>
       <c r="C23" s="1">
-        <v>-40.82</v>
+        <v>-38.62</v>
       </c>
       <c r="D23" s="1">
-        <v>-37.4</v>
+        <v>-37.01</v>
       </c>
       <c r="E23" s="1">
-        <v>-43.3</v>
+        <v>-40.06</v>
       </c>
       <c r="F23" s="1">
-        <v>7.5</v>
+        <v>134.25</v>
       </c>
       <c r="G23" s="1">
-        <v>93.62</v>
+        <v>90.06</v>
       </c>
       <c r="H23" s="1">
-        <v>94.5</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>92.09999999999999</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>8.67</v>
+        <v>107.68</v>
       </c>
       <c r="K23" s="1">
-        <v>-131.3</v>
+        <v>-119.02</v>
       </c>
       <c r="L23" s="1">
-        <v>-15.15</v>
+        <v>-1.11</v>
       </c>
       <c r="M23" s="1">
-        <v>12.67</v>
+        <v>224.48</v>
       </c>
       <c r="N23" s="1">
-        <v>132.1</v>
+        <v>119.19</v>
       </c>
       <c r="O23" s="1">
-        <v>10.43</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>3</v>
       </c>
+      <c r="B24" s="1">
+        <v>13.28</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-38.53</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-37.11</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-40.08</v>
+      </c>
       <c r="F24" s="1">
-        <v>7.33</v>
+        <v>134.28</v>
       </c>
       <c r="G24" s="1">
-        <v>93.61</v>
+        <v>90.06</v>
       </c>
       <c r="H24" s="1">
-        <v>94.40000000000001</v>
+        <v>93.89</v>
       </c>
       <c r="I24" s="1">
-        <v>92.09999999999999</v>
+        <v>82.03</v>
       </c>
       <c r="J24" s="1">
-        <v>8.83</v>
+        <v>107.78</v>
       </c>
       <c r="K24" s="1">
-        <v>-131.7</v>
+        <v>-119.12</v>
       </c>
       <c r="L24" s="1">
-        <v>-14.91</v>
+        <v>-1.11</v>
       </c>
       <c r="M24" s="1">
-        <v>12.83</v>
+        <v>224.47</v>
       </c>
       <c r="N24" s="1">
-        <v>132.2</v>
+        <v>119.05</v>
       </c>
       <c r="O24" s="1">
-        <v>10.3</v>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13.48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-38.61</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-37.15</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-40.06</v>
+      </c>
+      <c r="F25" s="1">
+        <v>135.38</v>
+      </c>
+      <c r="G25" s="1">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>94.51000000000001</v>
+      </c>
+      <c r="I25" s="1">
+        <v>82.06999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>107.58</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-119.23</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1.11</v>
+      </c>
+      <c r="M25" s="1">
+        <v>223.75</v>
+      </c>
+      <c r="N25" s="1">
+        <v>119.36</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13.38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-38.59</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-37.11</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-40.04</v>
+      </c>
+      <c r="F26" s="1">
+        <v>134.32</v>
+      </c>
+      <c r="G26" s="1">
+        <v>90.09</v>
+      </c>
+      <c r="H26" s="1">
+        <v>93.68000000000001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>82.06</v>
+      </c>
+      <c r="J26" s="1">
+        <v>107.75</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-119.19</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-1.11</v>
+      </c>
+      <c r="M26" s="1">
+        <v>224.47</v>
+      </c>
+      <c r="N26" s="1">
+        <v>119.16</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>134.28</v>
+      </c>
+      <c r="G27" s="1">
+        <v>90.06999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>82.08</v>
+      </c>
+      <c r="J27" s="1">
+        <v>107.63</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-119.1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-1.11</v>
+      </c>
+      <c r="M27" s="1">
+        <v>224.7</v>
+      </c>
+      <c r="N27" s="1">
+        <v>119.3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -2880,7 +2786,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:Z24"/>
+  <dimension ref="A6:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2891,184 +2797,184 @@
   <sheetData>
     <row r="6" spans="1:15">
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
-        <v>21.33</v>
+        <v>129.23</v>
       </c>
       <c r="C7" s="1">
-        <v>-40.74</v>
+        <v>-41.95</v>
       </c>
       <c r="D7" s="1">
-        <v>-37.45</v>
+        <v>-37.07</v>
       </c>
       <c r="E7" s="1">
-        <v>-43.6</v>
+        <v>-42.54</v>
       </c>
       <c r="F7" s="1">
-        <v>6.11</v>
+        <v>124.63</v>
       </c>
       <c r="G7" s="1">
-        <v>93.31999999999999</v>
+        <v>84.86</v>
       </c>
       <c r="H7" s="1">
-        <v>94.13</v>
+        <v>85.66</v>
       </c>
       <c r="I7" s="1">
-        <v>92.13</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>8.609999999999999</v>
+        <v>112.15</v>
       </c>
       <c r="K7" s="1">
-        <v>-130.93</v>
+        <v>-119.11</v>
       </c>
       <c r="L7" s="1">
-        <v>-15.21</v>
+        <v>-1.06</v>
       </c>
       <c r="M7" s="1">
-        <v>14.06</v>
+        <v>114.01</v>
       </c>
       <c r="N7" s="1">
-        <v>132.13</v>
+        <v>119.12</v>
       </c>
       <c r="O7" s="1">
-        <v>9.4</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1">
-        <v>21.33</v>
+        <v>129.13</v>
       </c>
       <c r="C8" s="1">
-        <v>-40.75</v>
+        <v>-41.96</v>
       </c>
       <c r="D8" s="1">
-        <v>-37.7</v>
+        <v>-37.12</v>
       </c>
       <c r="E8" s="1">
-        <v>-44.1</v>
+        <v>-42.58</v>
       </c>
       <c r="F8" s="1">
-        <v>6</v>
+        <v>124.48</v>
       </c>
       <c r="G8" s="1">
-        <v>93.29000000000001</v>
+        <v>84.84</v>
       </c>
       <c r="H8" s="1">
-        <v>94.09999999999999</v>
+        <v>85.63</v>
       </c>
       <c r="I8" s="1">
-        <v>92.09999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>8.5</v>
+        <v>111.85</v>
       </c>
       <c r="K8" s="1">
-        <v>-131.6</v>
+        <v>-119.17</v>
       </c>
       <c r="L8" s="1">
-        <v>-15.39</v>
+        <v>-1.07</v>
       </c>
       <c r="M8" s="1">
-        <v>13.83</v>
+        <v>113.88</v>
       </c>
       <c r="N8" s="1">
-        <v>132</v>
+        <v>119.08</v>
       </c>
       <c r="O8" s="1">
-        <v>9.32</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -3076,87 +2982,87 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
-        <v>21.33</v>
+        <v>129.3</v>
       </c>
       <c r="C10" s="1">
-        <v>-40.72</v>
+        <v>-41.93</v>
       </c>
       <c r="D10" s="1">
-        <v>-37.2</v>
+        <v>-37.02</v>
       </c>
       <c r="E10" s="1">
-        <v>-43.1</v>
+        <v>-42.5</v>
       </c>
       <c r="F10" s="1">
-        <v>6.33</v>
+        <v>124.85</v>
       </c>
       <c r="G10" s="1">
-        <v>93.34</v>
+        <v>84.87</v>
       </c>
       <c r="H10" s="1">
-        <v>94.2</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>92.2</v>
+        <v>82.08</v>
       </c>
       <c r="J10" s="1">
-        <v>8.83</v>
+        <v>112.38</v>
       </c>
       <c r="K10" s="1">
-        <v>-130.4</v>
+        <v>-119.05</v>
       </c>
       <c r="L10" s="1">
-        <v>-14.9</v>
+        <v>-1.06</v>
       </c>
       <c r="M10" s="1">
-        <v>14.17</v>
+        <v>114.1</v>
       </c>
       <c r="N10" s="1">
-        <v>132.3</v>
+        <v>119.15</v>
       </c>
       <c r="O10" s="1">
-        <v>9.539999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
         <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3170,96 +3076,96 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="M12" s="1">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N12" s="1">
         <v>0.03</v>
       </c>
-      <c r="H12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.15</v>
-      </c>
       <c r="O12" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3267,46 +3173,46 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>21.33</v>
+        <v>129.3</v>
       </c>
       <c r="C22" s="1">
-        <v>-40.72</v>
+        <v>-41.96</v>
       </c>
       <c r="D22" s="1">
-        <v>-37.7</v>
+        <v>-37.08</v>
       </c>
       <c r="E22" s="1">
-        <v>-44.1</v>
+        <v>-42.58</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>124.85</v>
       </c>
       <c r="G22" s="1">
-        <v>93.29000000000001</v>
+        <v>84.84</v>
       </c>
       <c r="H22" s="1">
-        <v>94.09999999999999</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>92.09999999999999</v>
+        <v>82.08</v>
       </c>
       <c r="J22" s="1">
-        <v>8.5</v>
+        <v>111.85</v>
       </c>
       <c r="K22" s="1">
-        <v>-130.4</v>
+        <v>-119.14</v>
       </c>
       <c r="L22" s="1">
-        <v>-15.34</v>
+        <v>-1.07</v>
       </c>
       <c r="M22" s="1">
-        <v>14.17</v>
+        <v>114.1</v>
       </c>
       <c r="N22" s="1">
-        <v>132.1</v>
+        <v>119.15</v>
       </c>
       <c r="O22" s="1">
-        <v>9.32</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -3314,81 +3220,222 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>21.33</v>
+        <v>129.13</v>
       </c>
       <c r="C23" s="1">
-        <v>-40.75</v>
+        <v>-41.94</v>
       </c>
       <c r="D23" s="1">
-        <v>-37.2</v>
+        <v>-37.12</v>
       </c>
       <c r="E23" s="1">
-        <v>-43.1</v>
+        <v>-42.5</v>
       </c>
       <c r="F23" s="1">
-        <v>6.33</v>
+        <v>124.55</v>
       </c>
       <c r="G23" s="1">
-        <v>93.34</v>
+        <v>84.87</v>
       </c>
       <c r="H23" s="1">
-        <v>94.2</v>
+        <v>85.67</v>
       </c>
       <c r="I23" s="1">
-        <v>92.09999999999999</v>
+        <v>82.03</v>
       </c>
       <c r="J23" s="1">
-        <v>8.5</v>
+        <v>112.38</v>
       </c>
       <c r="K23" s="1">
-        <v>-130.8</v>
+        <v>-119.17</v>
       </c>
       <c r="L23" s="1">
-        <v>-15.39</v>
+        <v>-1.06</v>
       </c>
       <c r="M23" s="1">
-        <v>13.83</v>
+        <v>113.88</v>
       </c>
       <c r="N23" s="1">
-        <v>132</v>
+        <v>119.1</v>
       </c>
       <c r="O23" s="1">
-        <v>9.539999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>3</v>
       </c>
+      <c r="B24" s="1">
+        <v>129.23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-41.95</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-37.09</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-42.56</v>
+      </c>
       <c r="F24" s="1">
+        <v>124.48</v>
+      </c>
+      <c r="G24" s="1">
+        <v>84.87</v>
+      </c>
+      <c r="H24" s="1">
+        <v>85.64</v>
+      </c>
+      <c r="I24" s="1">
+        <v>82.05</v>
+      </c>
+      <c r="J24" s="1">
+        <v>112.28</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-119.12</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-1.06</v>
+      </c>
+      <c r="M24" s="1">
+        <v>114.02</v>
+      </c>
+      <c r="N24" s="1">
+        <v>119.15</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>129.27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-41.95</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-37.05</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-42.54</v>
+      </c>
+      <c r="F25" s="1">
+        <v>124.68</v>
+      </c>
+      <c r="G25" s="1">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>85.63</v>
+      </c>
+      <c r="I25" s="1">
+        <v>82.03</v>
+      </c>
+      <c r="J25" s="1">
+        <v>112.08</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-119.06</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1.06</v>
+      </c>
+      <c r="M25" s="1">
+        <v>114</v>
+      </c>
+      <c r="N25" s="1">
+        <v>119.08</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>129.23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-41.93</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-37.02</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-42.53</v>
+      </c>
+      <c r="F26" s="1">
+        <v>124.52</v>
+      </c>
+      <c r="G26" s="1">
+        <v>84.87</v>
+      </c>
+      <c r="H26" s="1">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>112.25</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-119.05</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-1.06</v>
+      </c>
+      <c r="M26" s="1">
+        <v>113.98</v>
+      </c>
+      <c r="N26" s="1">
+        <v>119.12</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="G24" s="1">
-        <v>93.33</v>
-      </c>
-      <c r="H24" s="1">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="I24" s="1">
-        <v>92.2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>8.83</v>
-      </c>
-      <c r="K24" s="1">
-        <v>-131.6</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-14.9</v>
-      </c>
-      <c r="M24" s="1">
-        <v>14.17</v>
-      </c>
-      <c r="N24" s="1">
-        <v>132.3</v>
-      </c>
-      <c r="O24" s="1">
-        <v>9.34</v>
+      <c r="F27" s="1">
+        <v>124.68</v>
+      </c>
+      <c r="G27" s="1">
+        <v>84.87</v>
+      </c>
+      <c r="H27" s="1">
+        <v>85.65000000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J27" s="1">
+        <v>112.03</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-119.1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-1.06</v>
+      </c>
+      <c r="M27" s="1">
+        <v>114.05</v>
+      </c>
+      <c r="N27" s="1">
+        <v>119.11</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -3399,7 +3446,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:Z24"/>
+  <dimension ref="A6:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3410,375 +3457,375 @@
   <sheetData>
     <row r="6" spans="1:15">
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
-        <v>21.08</v>
+        <v>15.27</v>
       </c>
       <c r="C7" s="1">
-        <v>-40.5</v>
+        <v>-41.38</v>
       </c>
       <c r="D7" s="1">
-        <v>-37.65</v>
+        <v>-37.07</v>
       </c>
       <c r="E7" s="1">
-        <v>-42.8</v>
+        <v>-42.72</v>
       </c>
       <c r="F7" s="1">
-        <v>7.06</v>
+        <v>132.51</v>
       </c>
       <c r="G7" s="1">
-        <v>93.15000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="H7" s="1">
-        <v>93.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>92.09999999999999</v>
+        <v>82.22</v>
       </c>
       <c r="J7" s="1">
-        <v>8.83</v>
+        <v>112.08</v>
       </c>
       <c r="K7" s="1">
-        <v>-130.47</v>
+        <v>-119.48</v>
       </c>
       <c r="L7" s="1">
-        <v>-14.77</v>
+        <v>-1.07</v>
       </c>
       <c r="M7" s="1">
-        <v>13.11</v>
+        <v>205.14</v>
       </c>
       <c r="N7" s="1">
-        <v>132.03</v>
+        <v>119.91</v>
       </c>
       <c r="O7" s="1">
-        <v>10.07</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1">
-        <v>21</v>
+        <v>15.18</v>
       </c>
       <c r="C8" s="1">
-        <v>-40.54</v>
+        <v>-41.4</v>
       </c>
       <c r="D8" s="1">
-        <v>-37.9</v>
+        <v>-37.16</v>
       </c>
       <c r="E8" s="1">
-        <v>-43.1</v>
+        <v>-42.78</v>
       </c>
       <c r="F8" s="1">
-        <v>7</v>
+        <v>132.45</v>
       </c>
       <c r="G8" s="1">
-        <v>93.13</v>
+        <v>89.27</v>
       </c>
       <c r="H8" s="1">
-        <v>93.8</v>
+        <v>95.97</v>
       </c>
       <c r="I8" s="1">
-        <v>92.09999999999999</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>8.67</v>
+        <v>111.95</v>
       </c>
       <c r="K8" s="1">
-        <v>-131.1</v>
+        <v>-119.58</v>
       </c>
       <c r="L8" s="1">
-        <v>-15.02</v>
+        <v>-1.07</v>
       </c>
       <c r="M8" s="1">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="N8" s="1">
-        <v>132</v>
+        <v>119.29</v>
       </c>
       <c r="O8" s="1">
-        <v>10.03</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2</v>
-      </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
-        <v>21.17</v>
+        <v>15.38</v>
       </c>
       <c r="C10" s="1">
-        <v>-40.46</v>
+        <v>-41.33</v>
       </c>
       <c r="D10" s="1">
-        <v>-37.4</v>
+        <v>-37.01</v>
       </c>
       <c r="E10" s="1">
-        <v>-42.5</v>
+        <v>-42.6</v>
       </c>
       <c r="F10" s="1">
-        <v>7.17</v>
+        <v>132.58</v>
       </c>
       <c r="G10" s="1">
-        <v>93.19</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93.8</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>92.09999999999999</v>
+        <v>82.37</v>
       </c>
       <c r="J10" s="1">
-        <v>9</v>
+        <v>112.18</v>
       </c>
       <c r="K10" s="1">
-        <v>-130.1</v>
+        <v>-119.35</v>
       </c>
       <c r="L10" s="1">
-        <v>-14.57</v>
+        <v>-1.07</v>
       </c>
       <c r="M10" s="1">
-        <v>13.17</v>
+        <v>220.28</v>
       </c>
       <c r="N10" s="1">
-        <v>132.1</v>
+        <v>120.19</v>
       </c>
       <c r="O10" s="1">
-        <v>10.16</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
       </c>
       <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
-        <v>2</v>
-      </c>
       <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
         <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.06</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.35</v>
-      </c>
       <c r="E12" s="1">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G12" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H12" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.23</v>
-      </c>
       <c r="M12" s="1">
-        <v>0.1</v>
+        <v>36.81</v>
       </c>
       <c r="N12" s="1">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="O12" s="1">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3786,46 +3833,46 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>21.17</v>
+        <v>15.3</v>
       </c>
       <c r="C22" s="1">
-        <v>-40.46</v>
+        <v>-41.4</v>
       </c>
       <c r="D22" s="1">
-        <v>-37.9</v>
+        <v>-37.01</v>
       </c>
       <c r="E22" s="1">
-        <v>-43.1</v>
+        <v>-42.75</v>
       </c>
       <c r="F22" s="1">
-        <v>7</v>
+        <v>132.55</v>
       </c>
       <c r="G22" s="1">
-        <v>93.13</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>93.8</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>92.09999999999999</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>8.67</v>
+        <v>112.15</v>
       </c>
       <c r="K22" s="1">
-        <v>-130.2</v>
+        <v>-119.54</v>
       </c>
       <c r="L22" s="1">
-        <v>-15.02</v>
+        <v>-1.07</v>
       </c>
       <c r="M22" s="1">
-        <v>13.17</v>
+        <v>130</v>
       </c>
       <c r="N22" s="1">
-        <v>132</v>
+        <v>119.93</v>
       </c>
       <c r="O22" s="1">
-        <v>10.03</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -3833,1119 +3880,222 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>21</v>
+        <v>15.18</v>
       </c>
       <c r="C23" s="1">
-        <v>-40.54</v>
+        <v>-41.4</v>
       </c>
       <c r="D23" s="1">
-        <v>-37.4</v>
+        <v>-37.09</v>
       </c>
       <c r="E23" s="1">
-        <v>-42.5</v>
+        <v>-42.76</v>
       </c>
       <c r="F23" s="1">
-        <v>7</v>
+        <v>132.45</v>
       </c>
       <c r="G23" s="1">
-        <v>93.19</v>
+        <v>89.28</v>
       </c>
       <c r="H23" s="1">
-        <v>93.8</v>
+        <v>95.97</v>
       </c>
       <c r="I23" s="1">
-        <v>92.09999999999999</v>
+        <v>82.36</v>
       </c>
       <c r="J23" s="1">
-        <v>8.83</v>
+        <v>112.08</v>
       </c>
       <c r="K23" s="1">
-        <v>-130.1</v>
+        <v>-119.38</v>
       </c>
       <c r="L23" s="1">
-        <v>-14.73</v>
+        <v>-1.07</v>
       </c>
       <c r="M23" s="1">
-        <v>13.17</v>
+        <v>220.28</v>
       </c>
       <c r="N23" s="1">
-        <v>132</v>
+        <v>120.19</v>
       </c>
       <c r="O23" s="1">
-        <v>10.03</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>3</v>
       </c>
+      <c r="B24" s="1">
+        <v>15.18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-41.33</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-37.16</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-42.6</v>
+      </c>
       <c r="F24" s="1">
-        <v>7.17</v>
+        <v>132.48</v>
       </c>
       <c r="G24" s="1">
-        <v>93.13</v>
+        <v>89.27</v>
       </c>
       <c r="H24" s="1">
-        <v>93.8</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>92.09999999999999</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>9</v>
+        <v>112.18</v>
       </c>
       <c r="K24" s="1">
-        <v>-131.1</v>
+        <v>-119.51</v>
       </c>
       <c r="L24" s="1">
-        <v>-14.57</v>
+        <v>-1.07</v>
       </c>
       <c r="M24" s="1">
-        <v>13</v>
+        <v>220.17</v>
       </c>
       <c r="N24" s="1">
-        <v>132.1</v>
+        <v>120.03</v>
       </c>
       <c r="O24" s="1">
-        <v>10.16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:Z24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="26" width="27.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:15">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>21.08</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-40.41</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-37.3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-42.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.17</v>
-      </c>
-      <c r="G7" s="1">
-        <v>92.95999999999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8.94</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-130.7</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-14.62</v>
-      </c>
-      <c r="M7" s="1">
-        <v>13.94</v>
-      </c>
-      <c r="N7" s="1">
-        <v>132.03</v>
-      </c>
-      <c r="O7" s="1">
-        <v>9.470000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-40.45</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-37.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-42.7</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6.17</v>
-      </c>
-      <c r="G8" s="1">
-        <v>92.95</v>
-      </c>
-      <c r="H8" s="1">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>8.83</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-131.2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-14.84</v>
-      </c>
-      <c r="M8" s="1">
-        <v>13.83</v>
-      </c>
-      <c r="N8" s="1">
-        <v>132</v>
-      </c>
-      <c r="O8" s="1">
-        <v>9.43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>21.17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-40.37</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-37.1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-42.3</v>
-      </c>
-      <c r="F10" s="1">
-        <v>6.17</v>
-      </c>
-      <c r="G10" s="1">
-        <v>92.97</v>
-      </c>
-      <c r="H10" s="1">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="I10" s="1">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J10" s="1">
-        <v>9.17</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-129.8</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-14.31</v>
-      </c>
-      <c r="M10" s="1">
-        <v>14</v>
-      </c>
-      <c r="N10" s="1">
-        <v>132.1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>9.539999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.28</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.28</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21.17</v>
-      </c>
-      <c r="C22" s="1">
-        <v>-40.37</v>
-      </c>
-      <c r="D22" s="1">
-        <v>-37.5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-42.7</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6.17</v>
-      </c>
-      <c r="G22" s="1">
-        <v>92.95</v>
-      </c>
-      <c r="H22" s="1">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="I22" s="1">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J22" s="1">
-        <v>8.83</v>
-      </c>
-      <c r="K22" s="1">
-        <v>-131.1</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-14.84</v>
-      </c>
-      <c r="M22" s="1">
-        <v>13.83</v>
-      </c>
-      <c r="N22" s="1">
-        <v>132</v>
-      </c>
-      <c r="O22" s="1">
-        <v>9.539999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1">
-        <v>-40.45</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-37.1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-42.3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6.17</v>
-      </c>
-      <c r="G23" s="1">
-        <v>92.97</v>
-      </c>
-      <c r="H23" s="1">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="I23" s="1">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J23" s="1">
-        <v>8.83</v>
-      </c>
-      <c r="K23" s="1">
-        <v>-129.8</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-14.69</v>
-      </c>
-      <c r="M23" s="1">
-        <v>14</v>
-      </c>
-      <c r="N23" s="1">
-        <v>132</v>
-      </c>
-      <c r="O23" s="1">
-        <v>9.43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6.17</v>
-      </c>
-      <c r="G24" s="1">
-        <v>92.95999999999999</v>
-      </c>
-      <c r="H24" s="1">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="I24" s="1">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J24" s="1">
-        <v>9.17</v>
-      </c>
-      <c r="K24" s="1">
-        <v>-131.2</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-14.31</v>
-      </c>
-      <c r="M24" s="1">
-        <v>14</v>
-      </c>
-      <c r="N24" s="1">
-        <v>132.1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>9.44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:Z24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="26" width="27.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:15">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20.08</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-39.03</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-37.55</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-39.7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10.22</v>
-      </c>
-      <c r="G7" s="1">
-        <v>94.34999999999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>92.27</v>
-      </c>
-      <c r="J7" s="1">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-131.83</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-13.33</v>
-      </c>
-      <c r="M7" s="1">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="N7" s="1">
-        <v>131.23</v>
-      </c>
-      <c r="O7" s="1">
-        <v>13.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-39.04</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-37.9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-39.9</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10.17</v>
-      </c>
-      <c r="G8" s="1">
-        <v>94.29000000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="I8" s="1">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>9.83</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-132.6</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-13.48</v>
-      </c>
-      <c r="M8" s="1">
-        <v>9.83</v>
-      </c>
-      <c r="N8" s="1">
-        <v>130.7</v>
-      </c>
-      <c r="O8" s="1">
-        <v>13.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20.17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-39.02</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-37.2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-39.5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10.33</v>
-      </c>
-      <c r="G10" s="1">
-        <v>94.38</v>
-      </c>
-      <c r="H10" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="I10" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-131.1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-13.18</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10</v>
-      </c>
-      <c r="N10" s="1">
-        <v>131.8</v>
-      </c>
-      <c r="O10" s="1">
-        <v>13.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.28</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="1">
         <v>0.55</v>
       </c>
-      <c r="O12" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
-        <v>20.17</v>
-      </c>
-      <c r="C22" s="1">
-        <v>-39.02</v>
-      </c>
-      <c r="D22" s="1">
-        <v>-37.9</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-39.9</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10.17</v>
-      </c>
-      <c r="G22" s="1">
-        <v>94.29000000000001</v>
-      </c>
-      <c r="H22" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="I22" s="1">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J22" s="1">
-        <v>9.83</v>
-      </c>
-      <c r="K22" s="1">
-        <v>-132.6</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-13.48</v>
-      </c>
-      <c r="M22" s="1">
-        <v>9.83</v>
-      </c>
-      <c r="N22" s="1">
-        <v>130.7</v>
-      </c>
-      <c r="O22" s="1">
-        <v>13.29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>-39.04</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-37.2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-39.5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10.33</v>
-      </c>
-      <c r="G23" s="1">
-        <v>94.38</v>
-      </c>
-      <c r="H23" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="I23" s="1">
-        <v>92.2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>9.83</v>
-      </c>
-      <c r="K23" s="1">
-        <v>-131.1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-13.33</v>
-      </c>
-      <c r="M23" s="1">
-        <v>9.83</v>
-      </c>
-      <c r="N23" s="1">
-        <v>131.2</v>
-      </c>
-      <c r="O23" s="1">
-        <v>13.34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10.17</v>
-      </c>
-      <c r="G24" s="1">
-        <v>94.37</v>
-      </c>
-      <c r="H24" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="I24" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="J24" s="1">
-        <v>10</v>
-      </c>
-      <c r="K24" s="1">
-        <v>-131.8</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-13.18</v>
-      </c>
-      <c r="M24" s="1">
-        <v>10</v>
-      </c>
-      <c r="N24" s="1">
-        <v>131.8</v>
-      </c>
-      <c r="O24" s="1">
-        <v>13.18</v>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15.28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-41.4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-37.05</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-42.73</v>
+      </c>
+      <c r="F25" s="1">
+        <v>132.58</v>
+      </c>
+      <c r="G25" s="1">
+        <v>89.43000000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>96.2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>112.08</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-119.51</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1.07</v>
+      </c>
+      <c r="M25" s="1">
+        <v>220.05</v>
+      </c>
+      <c r="N25" s="1">
+        <v>119.89</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>15.38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-41.37</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-37.03</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-42.78</v>
+      </c>
+      <c r="F26" s="1">
+        <v>132.52</v>
+      </c>
+      <c r="G26" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>96.13</v>
+      </c>
+      <c r="I26" s="1">
+        <v>82.37</v>
+      </c>
+      <c r="J26" s="1">
+        <v>111.95</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-119.35</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-1.07</v>
+      </c>
+      <c r="M26" s="1">
+        <v>220.27</v>
+      </c>
+      <c r="N26" s="1">
+        <v>120.15</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>132.48</v>
+      </c>
+      <c r="G27" s="1">
+        <v>89.28</v>
+      </c>
+      <c r="H27" s="1">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>82.22</v>
+      </c>
+      <c r="J27" s="1">
+        <v>112.03</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-119.58</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-1.07</v>
+      </c>
+      <c r="M27" s="1">
+        <v>220.1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>119.29</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
